--- a/scrumboard/scrumboard__busreservationsystem.xlsx
+++ b/scrumboard/scrumboard__busreservationsystem.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project Gladiator\busreservation\scrumboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20060" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TO DO</t>
   </si>
@@ -126,13 +131,27 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1. create a cancel bookings Service
+5.2.create a cancelBooking() in service(front end)
+5.3. update cancelBooking component to implement service
+    5.3.1. add refund to wallet if wallet mode chosen 
+     5.3.2.send refund amount message
+     5.3.3.change status to Cancelled
+6.1.create a payment Service 
+6.2.create a payment() in service(front end)
+6.3.update payment component to implement the service
+     6.3.1.deduct from wallet if wallet mode chosen and has enough balance
+     6.3.2.change status to Booked.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +233,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,23 +530,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
+    <col min="3" max="4" width="32.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75.75" customHeight="1">
+    <row r="1" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -537,13 +566,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" customHeight="1">
+    <row r="2" spans="1:6" ht="244" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="116.25" customHeight="1"/>
+    <row r="3" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -551,24 +582,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scrumboard/scrumboard__busreservationsystem.xlsx
+++ b/scrumboard/scrumboard__busreservationsystem.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project Gladiator\busreservation\scrumboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20060" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TO DO</t>
   </si>
@@ -131,6 +126,12 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>3.1 Created profile component
+3.2 Created profile entity without mapping
+4.1 Created booking component
+4.2 Created booking entity without mapping</t>
   </si>
   <si>
     <t xml:space="preserve">5.1. create a cancel bookings Service
@@ -144,14 +145,21 @@
 6.3.update payment component to implement the service
      6.3.1.deduct from wallet if wallet mode chosen and has enough balance
      6.3.2.change status to Booked.
+3.4 Create profile service class and profile update function
+4.4 Create booking service and getBooking 
+and cancelbooking
 </t>
+  </si>
+  <si>
+    <t>3.3 Repository for booking
+4.3Pepository for profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,10 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,23 +536,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
-    <col min="3" max="4" width="32.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="75.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,15 +572,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="244" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="357.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="116.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -582,24 +594,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scrumboard/scrumboard__busreservationsystem.xlsx
+++ b/scrumboard/scrumboard__busreservationsystem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project Gladiator\busreservation\scrumboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50005\OneDrive\Desktop\New folder\busreservation\scrumboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_253F4CD70B6250D34BA477B84912094E0E8C0A09" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20060" windowHeight="7950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,6 +321,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,6 +373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,23 +565,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
-    <col min="3" max="4" width="32.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="3" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="244" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="244.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -574,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -582,24 +617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scrumboard/scrumboard__busreservationsystem.xlsx
+++ b/scrumboard/scrumboard__busreservationsystem.xlsx
@@ -133,7 +133,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5.1. create a cancel bookings Service
+    <t xml:space="preserve">1.1 Create the required entities and mapping of the entities.
+1.2 Write the backend code for login.
+1.3 Add the required functionality to angular component which is already created.
+2.1 Backend code for home page.
+2.2 Integerate the backend and frontent code.
+5.1. create a cancel bookings Service
 5.2.create a cancelBooking() in service(front end)
 5.3. update cancelBooking component to implement service
     5.3.1. add refund to wallet if wallet mode chosen 
